--- a/df_ltm.xlsx
+++ b/df_ltm.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,15 +390,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>resp_pattern</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>resp_pattern</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>technocrat_trait_ltm</t>
         </is>
@@ -425,16 +420,13 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>001</t>
         </is>
       </c>
-      <c r="I2">
-        <v>-0.2533377311302512</v>
+      <c r="H2">
+        <v>-0.2331553476246813</v>
       </c>
     </row>
     <row r="3">
@@ -458,16 +450,13 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I3">
-        <v>-0.782603495494946</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="4">
@@ -491,16 +480,13 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>001</t>
         </is>
       </c>
-      <c r="I4">
-        <v>-0.2533377311302512</v>
+      <c r="H4">
+        <v>-0.2331553476246813</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +510,13 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>001</t>
         </is>
       </c>
-      <c r="I5">
-        <v>-0.2533377311302512</v>
+      <c r="H5">
+        <v>-0.2331553476246813</v>
       </c>
     </row>
     <row r="6">
@@ -557,16 +540,13 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I6">
-        <v>-0.782603495494946</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="7">
@@ -590,16 +570,13 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I7">
-        <v>-0.782603495494946</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="8">
@@ -623,16 +600,13 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I8">
-        <v>-0.782603495494946</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +630,13 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>-0.782603495494946</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="10">
@@ -689,16 +660,13 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="I10">
-        <v>0.8261093516360074</v>
+      <c r="H10">
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="11">
@@ -722,16 +690,13 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="I11">
-        <v>0.8261093516360074</v>
+      <c r="H11">
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="12">
@@ -755,16 +720,13 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="I12">
-        <v>0.103452911587286</v>
+      <c r="H12">
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="13">
@@ -788,16 +750,13 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="I13">
-        <v>0.103452911587286</v>
+      <c r="H13">
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="14">
@@ -821,16 +780,13 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I14">
-        <v>1.284431678775634</v>
+      <c r="H14">
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="15">
@@ -854,16 +810,13 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="I15">
-        <v>0.4982253242490159</v>
+      <c r="H15">
+        <v>0.517993560508515</v>
       </c>
     </row>
     <row r="16">
@@ -887,16 +840,13 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="I16">
-        <v>0.4982253242490159</v>
+      <c r="H16">
+        <v>0.517993560508515</v>
       </c>
     </row>
     <row r="17">
@@ -920,16 +870,13 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I17">
-        <v>1.284431678775634</v>
+      <c r="H17">
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="18">
@@ -953,16 +900,13 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I18">
-        <v>-0.782603495494946</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="19">
@@ -986,16 +930,13 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="I19">
-        <v>0.4941803856393971</v>
+      <c r="H19">
+        <v>0.5107049165839362</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +960,13 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="I20">
-        <v>0.8261093516360074</v>
+      <c r="H20">
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="21">
@@ -1052,16 +990,13 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I21">
-        <v>-0.782603495494946</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="22">
@@ -1085,16 +1020,13 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I22">
-        <v>-0.782603495494946</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="23">
@@ -1118,16 +1050,13 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I23">
-        <v>1.284431678775634</v>
+      <c r="H23">
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="24">
@@ -1151,16 +1080,13 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I24">
-        <v>-0.782603495494946</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="25">
@@ -1184,16 +1110,13 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="I25">
-        <v>0.4941803856393971</v>
+      <c r="H25">
+        <v>0.5107049165839362</v>
       </c>
     </row>
     <row r="26">
@@ -1217,16 +1140,13 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I26">
-        <v>-0.782603495494946</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="27">
@@ -1250,16 +1170,13 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I27">
-        <v>1.284431678775634</v>
+      <c r="H27">
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="28">
@@ -1283,16 +1200,13 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I28">
-        <v>-0.782603495494946</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="29">
@@ -1316,16 +1230,13 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I29">
-        <v>-0.782603495494946</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="30">
@@ -1349,16 +1260,13 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I30">
-        <v>-0.782603495494946</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="31">
@@ -1382,16 +1290,13 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I31">
-        <v>1.284431678775634</v>
+      <c r="H31">
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="32">
@@ -1415,16 +1320,13 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="I32">
-        <v>0.4982253242490159</v>
+      <c r="H32">
+        <v>0.517993560508515</v>
       </c>
     </row>
     <row r="33">
@@ -1448,16 +1350,13 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I33">
-        <v>1.284431678775634</v>
+      <c r="H33">
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="34">
@@ -1481,16 +1380,13 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>001</t>
         </is>
       </c>
-      <c r="I34">
-        <v>-0.2533377311302512</v>
+      <c r="H34">
+        <v>-0.2331553476246813</v>
       </c>
     </row>
     <row r="35">
@@ -1514,16 +1410,13 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="I35">
-        <v>0.8261093516360074</v>
+      <c r="H35">
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="36">
@@ -1547,16 +1440,13 @@
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="I36">
-        <v>0.103452911587286</v>
+      <c r="H36">
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="37">
@@ -1580,16 +1470,13 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I37">
-        <v>-0.782603495494946</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H37">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="38">
@@ -1613,16 +1500,13 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I38">
-        <v>1.284431678775634</v>
+      <c r="H38">
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="39">
@@ -1646,16 +1530,13 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>010</t>
         </is>
       </c>
-      <c r="I39">
-        <v>0.09924610477600122</v>
+      <c r="H39">
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="40">
@@ -1679,16 +1560,13 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I40">
-        <v>-0.782603495494946</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H40">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="41">
@@ -1712,16 +1590,13 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="I41">
-        <v>0.8261093516360074</v>
+      <c r="H41">
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="42">
@@ -1745,16 +1620,13 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>010</t>
         </is>
       </c>
-      <c r="I42">
-        <v>0.09924610477600122</v>
+      <c r="H42">
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="43">
@@ -1778,16 +1650,13 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>010</t>
         </is>
       </c>
-      <c r="I43">
-        <v>0.09924610477600122</v>
+      <c r="H43">
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="44">
@@ -1811,16 +1680,13 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="I44">
-        <v>0.103452911587286</v>
+      <c r="H44">
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="45">
@@ -1844,16 +1710,13 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I45">
-        <v>-0.782603495494946</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H45">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="46">
@@ -1877,16 +1740,13 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="I46">
-        <v>0.103452911587286</v>
+      <c r="H46">
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="47">
@@ -1910,16 +1770,13 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I47">
-        <v>-0.782603495494946</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="48">
@@ -1943,16 +1800,13 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I48">
-        <v>-0.782603495494946</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H48">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="49">
@@ -1976,16 +1830,13 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>010</t>
         </is>
       </c>
-      <c r="I49">
-        <v>0.09924610477600122</v>
+      <c r="H49">
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="50">
@@ -2009,16 +1860,13 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="I50">
-        <v>0.103452911587286</v>
+      <c r="H50">
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="51">
@@ -2042,16 +1890,13 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I51">
-        <v>-0.782603495494946</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H51">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="52">
@@ -2075,16 +1920,13 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I52">
-        <v>-0.782603495494946</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H52">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="53">
@@ -2108,16 +1950,13 @@
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="I53">
-        <v>-0.782603495494946</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H53">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="54">
@@ -2141,16 +1980,43 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="I54">
-        <v>0.8261093516360074</v>
+      <c r="H54">
+        <v>0.839616500410669</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Eduardo Arana Ysa</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H55">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
   </sheetData>
